--- a/UploadAfschermendeConstructies/Afschermende_constructie_WDB_OTL_conform.xlsx
+++ b/UploadAfschermendeConstructies/Afschermende_constructie_WDB_OTL_conform.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="310">
   <si>
     <t xml:space="preserve">product (WDB)</t>
   </si>
@@ -1345,13 +1345,13 @@
   </sheetPr>
   <dimension ref="A1:AH153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.88"/>
@@ -1362,6 +1362,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="50.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="51"/>
   </cols>
   <sheetData>
@@ -1461,7 +1462,7 @@
       </c>
       <c r="L2" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A2,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
@@ -1514,7 +1515,7 @@
       </c>
       <c r="L3" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A3,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>22</v>
@@ -1567,7 +1568,7 @@
       </c>
       <c r="L4" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A4,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
@@ -1630,7 +1631,7 @@
       </c>
       <c r="L5" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A5,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -1689,7 +1690,7 @@
       </c>
       <c r="L6" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A6,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -1740,7 +1741,7 @@
       </c>
       <c r="L7" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A7,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
@@ -1791,7 +1792,7 @@
       </c>
       <c r="L8" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A8,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -1842,7 +1843,7 @@
       </c>
       <c r="L9" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A9,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -1893,7 +1894,7 @@
       </c>
       <c r="L10" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A10,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
@@ -1942,7 +1943,7 @@
       </c>
       <c r="L11" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A11,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
@@ -1995,7 +1996,7 @@
       </c>
       <c r="L12" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A12,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>42</v>
@@ -2048,7 +2049,7 @@
       </c>
       <c r="L13" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A13,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>22</v>
@@ -2101,7 +2102,7 @@
       </c>
       <c r="L14" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A14,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>22</v>
@@ -2156,7 +2157,7 @@
       </c>
       <c r="L15" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A15,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
@@ -2207,7 +2208,7 @@
       </c>
       <c r="L16" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A16,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
@@ -2258,7 +2259,7 @@
       </c>
       <c r="L17" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A17,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
@@ -2315,7 +2316,7 @@
       </c>
       <c r="L18" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A18,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
@@ -2372,7 +2373,7 @@
       </c>
       <c r="L19" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A19,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M19" s="10" t="s">
         <v>57</v>
@@ -2431,7 +2432,7 @@
       </c>
       <c r="L20" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A20,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
@@ -2484,7 +2485,7 @@
       </c>
       <c r="L21" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A21,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
@@ -2537,7 +2538,7 @@
       </c>
       <c r="L22" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A22,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
@@ -2590,7 +2591,7 @@
       </c>
       <c r="L23" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A23,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
@@ -2643,7 +2644,7 @@
       </c>
       <c r="L24" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A24,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
@@ -2702,7 +2703,7 @@
       </c>
       <c r="L25" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A25,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
@@ -2755,7 +2756,7 @@
       </c>
       <c r="L26" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A26,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
@@ -2808,7 +2809,7 @@
       </c>
       <c r="L27" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A27,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
@@ -2861,7 +2862,7 @@
       </c>
       <c r="L28" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A28,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
@@ -2918,7 +2919,7 @@
       </c>
       <c r="L29" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A29,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
@@ -2977,7 +2978,7 @@
       </c>
       <c r="L30" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A30,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
@@ -3030,7 +3031,7 @@
       </c>
       <c r="L31" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A31,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
@@ -3083,7 +3084,7 @@
       </c>
       <c r="L32" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A32,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M32" s="15" t="s">
         <v>75</v>
@@ -3136,7 +3137,7 @@
       </c>
       <c r="L33" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A33,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
@@ -3195,7 +3196,7 @@
       </c>
       <c r="L34" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A34,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="L35" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A35,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
@@ -3299,7 +3300,7 @@
       </c>
       <c r="L36" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A36,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
@@ -3358,7 +3359,7 @@
       </c>
       <c r="L37" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A37,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
@@ -3409,7 +3410,7 @@
       </c>
       <c r="L38" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A38,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
@@ -3466,7 +3467,7 @@
       </c>
       <c r="L39" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A39,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
@@ -3523,7 +3524,7 @@
       </c>
       <c r="L40" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A40,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
@@ -3574,7 +3575,7 @@
       </c>
       <c r="L41" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A41,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
@@ -3633,7 +3634,7 @@
       </c>
       <c r="L42" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A42,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
@@ -3692,7 +3693,7 @@
       </c>
       <c r="L43" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A43,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
@@ -3751,7 +3752,7 @@
       </c>
       <c r="L44" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A44,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
@@ -3808,7 +3809,7 @@
       </c>
       <c r="L45" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A45,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
@@ -3867,7 +3868,7 @@
       </c>
       <c r="L46" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A46,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
@@ -3924,7 +3925,7 @@
       </c>
       <c r="L47" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A47,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
@@ -3981,7 +3982,7 @@
       </c>
       <c r="L48" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A48,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
@@ -4040,7 +4041,7 @@
       </c>
       <c r="L49" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A49,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
@@ -4097,7 +4098,7 @@
       </c>
       <c r="L50" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A50,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
@@ -4154,7 +4155,7 @@
       </c>
       <c r="L51" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A51,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
@@ -4211,7 +4212,7 @@
       </c>
       <c r="L52" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A52,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
@@ -4264,7 +4265,7 @@
       </c>
       <c r="L53" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A53,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
@@ -4315,7 +4316,7 @@
       </c>
       <c r="L54" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A54,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
@@ -4366,7 +4367,7 @@
       </c>
       <c r="L55" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A55,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
@@ -4417,7 +4418,7 @@
       </c>
       <c r="L56" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A56,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
@@ -4468,7 +4469,7 @@
       </c>
       <c r="L57" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A57,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
@@ -4519,7 +4520,7 @@
       </c>
       <c r="L58" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A58,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
@@ -4576,7 +4577,7 @@
       </c>
       <c r="L59" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A59,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M59" s="10" t="s">
         <v>139</v>
@@ -4629,7 +4630,7 @@
       </c>
       <c r="L60" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A60,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
@@ -4688,7 +4689,7 @@
       </c>
       <c r="L61" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A61,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
@@ -4747,7 +4748,7 @@
       </c>
       <c r="L62" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A62,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
@@ -4798,7 +4799,7 @@
       </c>
       <c r="L63" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A63,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
@@ -4855,7 +4856,7 @@
       </c>
       <c r="L64" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A64,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
@@ -4914,7 +4915,7 @@
       </c>
       <c r="L65" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A65,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
@@ -4967,7 +4968,7 @@
       </c>
       <c r="L66" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A66,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
@@ -5026,7 +5027,7 @@
       </c>
       <c r="L67" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A67,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
@@ -5085,7 +5086,7 @@
       </c>
       <c r="L68" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A68,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
@@ -5142,7 +5143,7 @@
       </c>
       <c r="L69" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A69,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
@@ -5201,7 +5202,7 @@
       </c>
       <c r="L70" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A70,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
@@ -5258,7 +5259,7 @@
       </c>
       <c r="L71" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A71,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
@@ -5317,7 +5318,7 @@
       </c>
       <c r="L72" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A72,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
@@ -5374,7 +5375,7 @@
       </c>
       <c r="L73" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A73,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
@@ -5427,7 +5428,7 @@
       </c>
       <c r="L74" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A74,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M74" s="10" t="s">
         <v>175</v>
@@ -5488,7 +5489,7 @@
       </c>
       <c r="L75" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A75,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
@@ -5547,7 +5548,7 @@
       </c>
       <c r="L76" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A76,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
@@ -5600,7 +5601,7 @@
       </c>
       <c r="L77" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A77,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
@@ -5657,7 +5658,7 @@
       </c>
       <c r="L78" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A78,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
@@ -5716,7 +5717,7 @@
       </c>
       <c r="L79" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A79,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
@@ -5773,7 +5774,7 @@
       </c>
       <c r="L80" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A80,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
@@ -5824,7 +5825,7 @@
       </c>
       <c r="L81" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A81,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
@@ -5877,7 +5878,7 @@
       </c>
       <c r="L82" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A82,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
@@ -5930,7 +5931,7 @@
       </c>
       <c r="L83" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A83,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
@@ -5985,7 +5986,7 @@
       </c>
       <c r="L84" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A84,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="L85" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A85,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M85" s="10" t="s">
         <v>200</v>
@@ -6091,7 +6092,7 @@
       </c>
       <c r="L86" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A86,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
@@ -6144,7 +6145,7 @@
       </c>
       <c r="L87" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A87,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
@@ -6199,7 +6200,7 @@
       </c>
       <c r="L88" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A88,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
@@ -6250,7 +6251,7 @@
       </c>
       <c r="L89" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A89,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
@@ -6303,7 +6304,7 @@
       </c>
       <c r="L90" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A90,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
@@ -6356,7 +6357,7 @@
       </c>
       <c r="L91" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A91,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
@@ -6413,7 +6414,7 @@
       </c>
       <c r="L92" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A92,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
@@ -6464,7 +6465,7 @@
       </c>
       <c r="L93" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A93,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
@@ -6523,7 +6524,7 @@
       </c>
       <c r="L94" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A94,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
@@ -6574,7 +6575,7 @@
       </c>
       <c r="L95" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A95,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
@@ -6625,7 +6626,7 @@
       </c>
       <c r="L96" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A96,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
@@ -6684,7 +6685,7 @@
       </c>
       <c r="L97" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A97,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
@@ -6741,7 +6742,7 @@
       </c>
       <c r="L98" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A98,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
@@ -6792,7 +6793,7 @@
       </c>
       <c r="L99" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A99,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
@@ -6843,7 +6844,7 @@
       </c>
       <c r="L100" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A100,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
@@ -6900,7 +6901,7 @@
       </c>
       <c r="L101" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A101,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
@@ -6957,7 +6958,7 @@
       </c>
       <c r="L102" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A102,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
@@ -7014,7 +7015,7 @@
       </c>
       <c r="L103" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A103,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
@@ -7067,7 +7068,7 @@
       </c>
       <c r="L104" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A104,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
@@ -7124,7 +7125,7 @@
       </c>
       <c r="L105" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A105,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M105" s="10"/>
       <c r="N105" s="10"/>
@@ -7181,7 +7182,7 @@
       </c>
       <c r="L106" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A106,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
@@ -7238,7 +7239,7 @@
       </c>
       <c r="L107" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A107,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
@@ -7295,7 +7296,7 @@
       </c>
       <c r="L108" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A108,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
@@ -7352,7 +7353,7 @@
       </c>
       <c r="L109" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A109,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M109" s="10"/>
       <c r="N109" s="10"/>
@@ -7403,7 +7404,7 @@
       </c>
       <c r="L110" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A110,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
@@ -7460,7 +7461,7 @@
       </c>
       <c r="L111" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A111,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
@@ -7511,7 +7512,7 @@
       </c>
       <c r="L112" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A112,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
@@ -7568,7 +7569,7 @@
       </c>
       <c r="L113" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A113,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
@@ -7625,7 +7626,7 @@
       </c>
       <c r="L114" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A114,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M114" s="10" t="s">
         <v>139</v>
@@ -7684,7 +7685,7 @@
       </c>
       <c r="L115" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A115,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M115" s="10"/>
       <c r="N115" s="10"/>
@@ -7741,7 +7742,7 @@
       </c>
       <c r="L116" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A116,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M116" s="10"/>
       <c r="N116" s="10"/>
@@ -7798,7 +7799,7 @@
       </c>
       <c r="L117" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A117,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M117" s="10"/>
       <c r="N117" s="10"/>
@@ -7857,7 +7858,7 @@
       </c>
       <c r="L118" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A118,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M118" s="10"/>
       <c r="N118" s="10"/>
@@ -7916,7 +7917,7 @@
       </c>
       <c r="L119" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A119,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M119" s="10"/>
       <c r="N119" s="10"/>
@@ -7975,7 +7976,7 @@
       </c>
       <c r="L120" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A120,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M120" s="10"/>
       <c r="N120" s="10"/>
@@ -8032,7 +8033,7 @@
       </c>
       <c r="L121" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A121,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M121" s="10"/>
       <c r="N121" s="10"/>
@@ -8083,7 +8084,7 @@
       </c>
       <c r="L122" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A122,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="L123" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A123,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
@@ -8189,7 +8190,7 @@
       </c>
       <c r="L124" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A124,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M124" s="10" t="s">
         <v>272</v>
@@ -8244,7 +8245,7 @@
       </c>
       <c r="L125" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A125,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M125" s="10"/>
       <c r="N125" s="10"/>
@@ -8295,7 +8296,7 @@
       </c>
       <c r="L126" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A126,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M126" s="10"/>
       <c r="N126" s="10"/>
@@ -8352,7 +8353,7 @@
       </c>
       <c r="L127" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A127,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M127" s="10"/>
       <c r="N127" s="10"/>
@@ -8411,7 +8412,7 @@
       </c>
       <c r="L128" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A128,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M128" s="10"/>
       <c r="N128" s="10"/>
@@ -8462,7 +8463,7 @@
       </c>
       <c r="L129" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A129,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M129" s="10"/>
       <c r="N129" s="10"/>
@@ -8513,7 +8514,7 @@
       </c>
       <c r="L130" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A130,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M130" s="10"/>
       <c r="N130" s="10"/>
@@ -8564,7 +8565,7 @@
       </c>
       <c r="L131" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A131,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M131" s="10"/>
       <c r="N131" s="10"/>
@@ -8615,7 +8616,7 @@
       </c>
       <c r="L132" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A132,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M132" s="10"/>
       <c r="N132" s="10"/>
@@ -8674,7 +8675,7 @@
       </c>
       <c r="L133" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A133,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M133" s="10"/>
       <c r="N133" s="10"/>
@@ -8718,14 +8719,16 @@
       </c>
       <c r="H134" s="12"/>
       <c r="I134" s="13"/>
-      <c r="J134" s="13"/>
+      <c r="J134" s="9" t="s">
+        <v>290</v>
+      </c>
       <c r="K134" s="14" t="e">
         <f aca="false">COUNTIF(#REF!,A134)</f>
         <v>#REF!</v>
       </c>
       <c r="L134" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A134,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M134" s="10"/>
       <c r="N134" s="10"/>
@@ -8771,14 +8774,16 @@
       </c>
       <c r="H135" s="12"/>
       <c r="I135" s="13"/>
-      <c r="J135" s="13"/>
+      <c r="J135" s="9" t="s">
+        <v>291</v>
+      </c>
       <c r="K135" s="14" t="e">
         <f aca="false">COUNTIF(#REF!,A135)</f>
         <v>#REF!</v>
       </c>
       <c r="L135" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A135,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M135" s="10"/>
       <c r="N135" s="10"/>
@@ -8824,14 +8829,16 @@
       </c>
       <c r="H136" s="12"/>
       <c r="I136" s="13"/>
-      <c r="J136" s="13"/>
+      <c r="J136" s="9" t="s">
+        <v>292</v>
+      </c>
       <c r="K136" s="14" t="e">
         <f aca="false">COUNTIF(#REF!,A136)</f>
         <v>#REF!</v>
       </c>
       <c r="L136" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A136,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M136" s="10"/>
       <c r="N136" s="10"/>
@@ -8877,14 +8884,16 @@
       </c>
       <c r="H137" s="12"/>
       <c r="I137" s="13"/>
-      <c r="J137" s="13"/>
+      <c r="J137" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="K137" s="14" t="e">
         <f aca="false">COUNTIF(#REF!,A137)</f>
         <v>#REF!</v>
       </c>
       <c r="L137" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A137,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M137" s="10"/>
       <c r="N137" s="10"/>
@@ -8930,14 +8939,16 @@
       </c>
       <c r="H138" s="12"/>
       <c r="I138" s="13"/>
-      <c r="J138" s="13"/>
+      <c r="J138" s="9" t="s">
+        <v>294</v>
+      </c>
       <c r="K138" s="14" t="e">
         <f aca="false">COUNTIF(#REF!,A138)</f>
         <v>#REF!</v>
       </c>
       <c r="L138" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A138,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M138" s="10"/>
       <c r="N138" s="10"/>
@@ -8983,14 +8994,16 @@
       </c>
       <c r="H139" s="12"/>
       <c r="I139" s="13"/>
-      <c r="J139" s="13"/>
+      <c r="J139" s="9" t="s">
+        <v>295</v>
+      </c>
       <c r="K139" s="14" t="e">
         <f aca="false">COUNTIF(#REF!,A139)</f>
         <v>#REF!</v>
       </c>
       <c r="L139" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A139,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M139" s="10"/>
       <c r="N139" s="10"/>
@@ -9034,14 +9047,16 @@
       </c>
       <c r="H140" s="12"/>
       <c r="I140" s="13"/>
-      <c r="J140" s="13"/>
+      <c r="J140" s="9" t="s">
+        <v>296</v>
+      </c>
       <c r="K140" s="14" t="e">
         <f aca="false">COUNTIF(#REF!,A140)</f>
         <v>#REF!</v>
       </c>
       <c r="L140" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A140,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M140" s="10"/>
       <c r="N140" s="10"/>
@@ -9087,14 +9102,16 @@
       </c>
       <c r="H141" s="12"/>
       <c r="I141" s="13"/>
-      <c r="J141" s="13"/>
+      <c r="J141" s="9" t="s">
+        <v>297</v>
+      </c>
       <c r="K141" s="14" t="e">
         <f aca="false">COUNTIF(#REF!,A141)</f>
         <v>#REF!</v>
       </c>
       <c r="L141" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A141,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M141" s="10"/>
       <c r="N141" s="10"/>
@@ -9140,14 +9157,16 @@
       </c>
       <c r="H142" s="12"/>
       <c r="I142" s="13"/>
-      <c r="J142" s="13"/>
+      <c r="J142" s="9" t="s">
+        <v>298</v>
+      </c>
       <c r="K142" s="14" t="e">
         <f aca="false">COUNTIF(#REF!,A142)</f>
         <v>#REF!</v>
       </c>
       <c r="L142" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A142,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M142" s="10"/>
       <c r="N142" s="10"/>
@@ -9191,14 +9210,16 @@
       </c>
       <c r="H143" s="12"/>
       <c r="I143" s="13"/>
-      <c r="J143" s="13"/>
+      <c r="J143" s="9" t="s">
+        <v>299</v>
+      </c>
       <c r="K143" s="14" t="e">
         <f aca="false">COUNTIF(#REF!,A143)</f>
         <v>#REF!</v>
       </c>
       <c r="L143" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A143,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M143" s="10"/>
       <c r="N143" s="10"/>
@@ -9244,14 +9265,16 @@
       </c>
       <c r="H144" s="12"/>
       <c r="I144" s="13"/>
-      <c r="J144" s="13"/>
+      <c r="J144" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="K144" s="14" t="e">
         <f aca="false">COUNTIF(#REF!,A144)</f>
         <v>#REF!</v>
       </c>
       <c r="L144" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A144,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M144" s="10"/>
       <c r="N144" s="10"/>
@@ -9295,14 +9318,16 @@
       </c>
       <c r="H145" s="12"/>
       <c r="I145" s="13"/>
-      <c r="J145" s="13"/>
+      <c r="J145" s="9" t="s">
+        <v>301</v>
+      </c>
       <c r="K145" s="14" t="e">
         <f aca="false">COUNTIF(#REF!,A145)</f>
         <v>#REF!</v>
       </c>
       <c r="L145" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A145,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M145" s="10"/>
       <c r="N145" s="10"/>
@@ -9348,14 +9373,16 @@
       </c>
       <c r="H146" s="12"/>
       <c r="I146" s="13"/>
-      <c r="J146" s="13"/>
+      <c r="J146" s="9" t="s">
+        <v>302</v>
+      </c>
       <c r="K146" s="14" t="e">
         <f aca="false">COUNTIF(#REF!,A146)</f>
         <v>#REF!</v>
       </c>
       <c r="L146" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A146,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M146" s="10"/>
       <c r="N146" s="10"/>
@@ -9399,14 +9426,16 @@
       </c>
       <c r="H147" s="12"/>
       <c r="I147" s="13"/>
-      <c r="J147" s="13"/>
+      <c r="J147" s="9" t="s">
+        <v>303</v>
+      </c>
       <c r="K147" s="14" t="e">
         <f aca="false">COUNTIF(#REF!,A147)</f>
         <v>#REF!</v>
       </c>
       <c r="L147" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A147,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M147" s="10"/>
       <c r="N147" s="10"/>
@@ -9450,14 +9479,16 @@
       </c>
       <c r="H148" s="12"/>
       <c r="I148" s="13"/>
-      <c r="J148" s="13"/>
+      <c r="J148" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="K148" s="14" t="e">
         <f aca="false">COUNTIF(#REF!,A148)</f>
         <v>#REF!</v>
       </c>
       <c r="L148" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A148,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M148" s="10"/>
       <c r="N148" s="10"/>
@@ -9503,14 +9534,16 @@
       </c>
       <c r="H149" s="12"/>
       <c r="I149" s="13"/>
-      <c r="J149" s="13"/>
+      <c r="J149" s="9" t="s">
+        <v>305</v>
+      </c>
       <c r="K149" s="14" t="e">
         <f aca="false">COUNTIF(#REF!,A149)</f>
         <v>#REF!</v>
       </c>
       <c r="L149" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A149,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M149" s="10"/>
       <c r="N149" s="10"/>
@@ -9556,14 +9589,16 @@
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="13"/>
-      <c r="J150" s="13"/>
+      <c r="J150" s="9" t="s">
+        <v>306</v>
+      </c>
       <c r="K150" s="14" t="e">
         <f aca="false">COUNTIF(#REF!,A150)</f>
         <v>#REF!</v>
       </c>
       <c r="L150" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A150,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M150" s="10"/>
       <c r="N150" s="10"/>
@@ -9609,14 +9644,16 @@
       </c>
       <c r="H151" s="12"/>
       <c r="I151" s="13"/>
-      <c r="J151" s="13"/>
+      <c r="J151" s="9" t="s">
+        <v>307</v>
+      </c>
       <c r="K151" s="14" t="e">
         <f aca="false">COUNTIF(#REF!,A151)</f>
         <v>#REF!</v>
       </c>
       <c r="L151" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A151,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M151" s="10"/>
       <c r="N151" s="10"/>
@@ -9662,14 +9699,16 @@
       </c>
       <c r="H152" s="12"/>
       <c r="I152" s="13"/>
-      <c r="J152" s="13"/>
+      <c r="J152" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="K152" s="14" t="e">
         <f aca="false">COUNTIF(#REF!,A152)</f>
         <v>#REF!</v>
       </c>
       <c r="L152" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A152,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M152" s="10"/>
       <c r="N152" s="10"/>
@@ -9715,7 +9754,7 @@
       </c>
       <c r="L153" s="14" t="e">
         <f aca="false">SUMIF(#REF!,A153,#REF!)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M153" s="10"/>
       <c r="N153" s="10"/>
